--- a/Input_data/NPs/NP_Database_Recent.xlsx
+++ b/Input_data/NPs/NP_Database_Recent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmp95\PycharmProjects\PC_ML_using NetSurfP\Input_data\NPs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE9CE7D-0E00-4574-95DE-59B4CEED6D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6824A08D-9A18-4FAD-9D95-A9B59310A95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{1E6018AB-3209-43BE-913D-2054D4E06304}"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{1E6018AB-3209-43BE-913D-2054D4E06304}"/>
   </bookViews>
   <sheets>
     <sheet name="NPUNID" sheetId="2" r:id="rId1"/>
@@ -1264,7 +1264,7 @@
   <dimension ref="A1:Y37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O40" sqref="O40"/>
+      <selection activeCell="O50" sqref="O50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1276,7 +1276,7 @@
     <col min="13" max="13" width="19.140625" customWidth="1"/>
     <col min="14" max="14" width="10.42578125" customWidth="1"/>
     <col min="15" max="15" width="19.28515625" customWidth="1"/>
-    <col min="16" max="16" width="8.140625" customWidth="1"/>
+    <col min="16" max="16" width="20" customWidth="1"/>
     <col min="17" max="17" width="13.7109375" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="16.140625" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="16" hidden="1" customWidth="1"/>
@@ -2317,8 +2317,8 @@
       <c r="M13" t="s">
         <v>49</v>
       </c>
-      <c r="N13" s="1">
-        <v>71.5</v>
+      <c r="N13" s="16">
+        <v>82</v>
       </c>
       <c r="O13" s="4">
         <v>151</v>
@@ -2487,8 +2487,8 @@
       <c r="M15" t="s">
         <v>67</v>
       </c>
-      <c r="N15" s="1">
-        <v>71.5</v>
+      <c r="N15" s="16">
+        <v>82</v>
       </c>
       <c r="O15" s="2">
         <v>151</v>
@@ -2742,8 +2742,8 @@
       <c r="M18" t="s">
         <v>68</v>
       </c>
-      <c r="N18" s="1">
-        <v>71.5</v>
+      <c r="N18" s="16">
+        <v>98</v>
       </c>
       <c r="O18" s="3">
         <v>151</v>
@@ -2827,8 +2827,8 @@
       <c r="M19" t="s">
         <v>68</v>
       </c>
-      <c r="N19" s="1">
-        <v>71.5</v>
+      <c r="N19" s="16">
+        <v>98</v>
       </c>
       <c r="O19" s="3">
         <v>151</v>
@@ -3082,8 +3082,8 @@
       <c r="M22" t="s">
         <v>49</v>
       </c>
-      <c r="N22" s="1">
-        <v>71.5</v>
+      <c r="N22" s="16">
+        <v>82</v>
       </c>
       <c r="O22" s="3">
         <v>151</v>
@@ -3167,8 +3167,8 @@
       <c r="M23" t="s">
         <v>67</v>
       </c>
-      <c r="N23" s="1">
-        <v>71.5</v>
+      <c r="N23" s="16">
+        <v>82</v>
       </c>
       <c r="O23" s="3">
         <v>151</v>
@@ -3507,8 +3507,8 @@
       <c r="M27" t="s">
         <v>67</v>
       </c>
-      <c r="N27" s="1">
-        <v>71.5</v>
+      <c r="N27" s="16">
+        <v>98</v>
       </c>
       <c r="O27" s="3">
         <v>151</v>
